--- a/2.1 Libraries/report.xlsx
+++ b/2.1 Libraries/report.xlsx
@@ -479,276 +479,36 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>2007</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>38916</v>
+        <v>94892</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>40641</v>
+        <v>53000</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2196</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>43646</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>48428</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>17549</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>42492</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>48109</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>17709</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>43846</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>49577</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>29093</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>47451</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>52794</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>36700</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>48243</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>58341</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>44153</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>51510</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>57004</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>59954</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>50658</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>58768</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>66837</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>52696</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>53326</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>70039</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>62675</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>54236</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>75145</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>60935</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>56558</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>82823</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>58335</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>61080</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>131701</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>69467</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>71288</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>115086</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>73431</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>80145</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>102243</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>82690</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>87473</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>57623</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>91795</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>91340</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>18294</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>305</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -768,7 +528,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
@@ -803,7 +563,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>76970</v>
+        <v>157438</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -811,7 +571,7 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.3246</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="3">
@@ -821,7 +581,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>65286</v>
+        <v>116875</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
@@ -829,25 +589,25 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.1197</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
+          <t>Домодедово</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>105000</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Новосибирск</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>62254</v>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>0.0271</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="5">
@@ -857,115 +617,115 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>60962</v>
+        <v>103333</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Минск</t>
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0237</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Хабаровск</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>52580</v>
+        <v>100000</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Нижний Новгород</t>
+          <t>Владивосток</t>
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.0232</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Ленинск-Кузнецкий</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>51644</v>
+        <v>90000</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Ростов-на-Дону</t>
+          <t>Нижний Новгород</t>
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0209</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Челябинск</t>
+          <t>Свердловский</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>51265</v>
+        <v>85000</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Екатеринбург</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0207</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Самара</t>
+          <t>Владивосток</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>50994</v>
+        <v>84725</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0185</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Пермь</t>
+          <t>Дубна</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>48089</v>
+        <v>80000</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Самара</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0143</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Нижний Новгород</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>47662</v>
+        <v>80000</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
@@ -973,7 +733,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.0141</v>
+        <v>0.022</v>
       </c>
     </row>
   </sheetData>

--- a/2.1 Libraries/report.xlsx
+++ b/2.1 Libraries/report.xlsx
@@ -64,11 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -445,9 +444,9 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="31" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +462,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Аналитик</t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,42 +472,282 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Аналитик</t>
+          <t>Количество вакансий - Программист</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>38916</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2196</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>50412</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>17549</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>42492</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>46699</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>17709</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>43846</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>50570</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>29093</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>47451</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>55770</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>36700</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>48243</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>57960</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>51510</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>58804</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>59954</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>50658</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>62384</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>66837</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>52696</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>62322</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>70039</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>62675</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>66817</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>75145</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>60935</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>72460</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>82823</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>58335</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>76879</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>131701</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>69467</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>115086</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>73431</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>89791</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>102243</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>82690</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>100987</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>57623</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>94892</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>53000</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+      <c r="B17" s="2" t="n">
+        <v>91795</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>116651</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>18294</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -528,7 +767,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
@@ -550,7 +789,7 @@
           <t>Город</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Доля вакансий</t>
         </is>
@@ -563,15 +802,15 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>157438</v>
+        <v>76970</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Москва</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0.2637</v>
+      <c r="E2" s="3" t="n">
+        <v>0.3246</v>
       </c>
     </row>
     <row r="3">
@@ -581,33 +820,33 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>116875</v>
+        <v>65286</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0.1319</v>
+      <c r="E3" s="3" t="n">
+        <v>0.1197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Домодедово</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>105000</v>
+        <v>62254</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Новосибирск</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.0549</v>
+      <c r="E4" s="3" t="n">
+        <v>0.0271</v>
       </c>
     </row>
     <row r="5">
@@ -617,123 +856,123 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>103333</v>
+        <v>60962</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Минск</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.044</v>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.0237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Хабаровск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>100000</v>
+        <v>52580</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Владивосток</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.044</v>
+          <t>Нижний Новгород</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.0232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Ленинск-Кузнецкий</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>90000</v>
+        <v>51644</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.033</v>
+          <t>Ростов-на-Дону</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.0209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Свердловский</t>
+          <t>Челябинск</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>85000</v>
+        <v>51265</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.033</v>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.0207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Владивосток</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>84725</v>
+        <v>50994</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.033</v>
+          <t>Краснодар</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.0185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Дубна</t>
+          <t>Пермь</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>80000</v>
+        <v>48089</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.033</v>
+          <t>Самара</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.0143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Нижний Новгород</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>80000</v>
+        <v>47662</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Воронеж</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>0.022</v>
+      <c r="E11" s="3" t="n">
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
